--- a/Organización/Procesos/Ciclo de vida IWM/Capacitación/PTLL_Evaluacion_efectividad.xlsx
+++ b/Organización/Procesos/Ciclo de vida IWM/Capacitación/PTLL_Evaluacion_efectividad.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\Documents\IWM\CMMI3\Repositorio\Organización\Procesos\Ciclo de vida IWM\Capacitación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gus\Documents\IWM\CMMI\GitHUB\Organización\Procesos\Ciclo de vida IWM\Capacitación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -140,7 +140,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: marcar con un número de 1, 3 ó 5 la columna que mejor describa su percepción sobre la mejora que usted nota en el recurso comparando su desempeño actual con el de antes de la capacitación.</t>
+      <t>: marcar con un número del 0 al 5 la columna que mejor describa su percepción sobre la mejora que usted nota en el recurso comparando su desempeño actual con el de antes de la capacitación.</t>
     </r>
   </si>
 </sst>
@@ -148,6 +148,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -460,9 +463,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -487,9 +490,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -505,7 +505,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -516,6 +515,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="14" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -528,25 +532,24 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
+    <cellStyle name="Millares" xfId="5" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal 7" xfId="5"/>
-    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 7" xfId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1196,8 +1199,8 @@
   </sheetPr>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,100 +1221,100 @@
     <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:13" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+    <row r="9" spans="1:13" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B9" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-    </row>
-    <row r="14" spans="1:13" s="28" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
+      <c r="B13" s="20"/>
+    </row>
+    <row r="14" spans="1:13" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="30" t="s">
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="31"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="7" t="s">
         <v>7</v>
       </c>
@@ -1339,7 +1342,7 @@
       <c r="K17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="31"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18" spans="2:12" ht="27.75" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
@@ -1354,9 +1357,9 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="10" t="str">
-        <f>IF(COUNTIF(C18:K18,"=Si")+COUNTIF(C18:K18,"=No")=0,"",COUNTIF(C18:K18,"=Si")/(COUNTIF(C18:K18,"=Si")+COUNTIF(C18:K18,"=No")))</f>
-        <v/>
+      <c r="L18" s="23" t="e">
+        <f>SUM(C18:K18)/COUNTIF(C18:K18,"&lt;&gt;")</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="27.75" x14ac:dyDescent="0.25">
@@ -1372,9 +1375,9 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="10" t="str">
-        <f t="shared" ref="L19:L28" si="0">IF(COUNTIF(C19:K19,"=Si")+COUNTIF(C19:K19,"=No")=0,"",COUNTIF(C19:K19,"=Si")/(COUNTIF(C19:K19,"=Si")+COUNTIF(C19:K19,"=No")))</f>
-        <v/>
+      <c r="L19" s="23" t="e">
+        <f t="shared" ref="L19:L28" si="0">SUM(C19:K19)/COUNTIF(C19:K19,"&lt;&gt;")</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="27.75" x14ac:dyDescent="0.25">
@@ -1390,9 +1393,9 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="10" t="str">
+      <c r="L20" s="23" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="27.75" x14ac:dyDescent="0.25">
@@ -1408,9 +1411,9 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="10" t="str">
+      <c r="L21" s="23" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="27.75" x14ac:dyDescent="0.25">
@@ -1426,9 +1429,9 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="10" t="str">
+      <c r="L22" s="23" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="2:12" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
@@ -1444,9 +1447,9 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="10" t="str">
+      <c r="L23" s="23" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="2:12" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
@@ -1462,9 +1465,9 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="10" t="str">
+      <c r="L24" s="23" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="2:12" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
@@ -1480,9 +1483,9 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="10" t="str">
+      <c r="L25" s="23" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="2:12" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
@@ -1498,9 +1501,9 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="10" t="str">
+      <c r="L26" s="23" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="2:12" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
@@ -1516,9 +1519,9 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="10" t="str">
+      <c r="L27" s="23" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="2:12" s="3" customFormat="1" ht="27.75" x14ac:dyDescent="0.25">
@@ -1534,60 +1537,60 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="10" t="str">
+      <c r="L28" s="23" t="e">
         <f t="shared" si="0"/>
-        <v/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="18">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="31" t="e">
         <f>SUM(L18:L28)/COUNTIF(L18:L28, "&lt;&gt;")</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="2:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
-      <c r="L30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="L30" s="10"/>
     </row>
     <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="2:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="25"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1598,8 +1601,9 @@
     <mergeCell ref="B15:L15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:K28">
-      <formula1>Celda</formula1>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:K28">
+      <formula1>0</formula1>
+      <formula2>5</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
